--- a/public/files/danh_sach_hoa_don_mau.xlsx
+++ b/public/files/danh_sach_hoa_don_mau.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job-part-time\nextjs-antd-admin\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B666020B-CA74-41DE-B74B-8B7CB7229A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA5CA7C-C8A5-4108-8B5A-1A8615EC265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Mã hóa đơn</t>
   </si>
@@ -59,15 +59,6 @@
     <t>Địa chỉ (Khách hàng)</t>
   </si>
   <si>
-    <t>Khu vực (Khách hàng)</t>
-  </si>
-  <si>
-    <t>Phường/Xã (Khách hàng)</t>
-  </si>
-  <si>
-    <t>Trạng thái</t>
-  </si>
-  <si>
     <t>Mã hàng2</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t>Chi nhánh trung tâm</t>
   </si>
   <si>
-    <t>HD000730</t>
-  </si>
-  <si>
     <t>KH000045</t>
   </si>
   <si>
@@ -110,115 +98,13 @@
     <t>258 nguyễn Văn Cừ. HÒA ĐÌNH. VÕ CƯỜNG. Bắc Ninh</t>
   </si>
   <si>
-    <t>Bắc Ninh - Thành phố Bắc Ninh</t>
-  </si>
-  <si>
-    <t>Phường Võ Cường</t>
-  </si>
-  <si>
-    <t>Đang xử lý</t>
-  </si>
-  <si>
-    <t>SP020916</t>
-  </si>
-  <si>
     <t>hàng</t>
   </si>
   <si>
-    <t>HD000729</t>
-  </si>
-  <si>
-    <t>KH000885</t>
-  </si>
-  <si>
-    <t>Thuần</t>
-  </si>
-  <si>
-    <t>0906553162</t>
-  </si>
-  <si>
-    <t>K282/h24/23 Nguyễn văn cừ - hoà hiệp Bắc - liên chiểu - Đà Nẵng</t>
-  </si>
-  <si>
-    <t>Đà Nẵng - Quận Liên Chiểu</t>
-  </si>
-  <si>
-    <t>Phường Hòa Hiệp Bắc</t>
-  </si>
-  <si>
-    <t>HD000728</t>
-  </si>
-  <si>
-    <t>KH000407</t>
-  </si>
-  <si>
-    <t>phượng sam</t>
-  </si>
-  <si>
-    <t>0986709156</t>
-  </si>
-  <si>
-    <t>số nhà 52, phố Hoàng Diệu, phường Cẩm Thượng, tp Hải Dương</t>
-  </si>
-  <si>
-    <t>Hải Dương - Thành phố Hải Dương</t>
-  </si>
-  <si>
-    <t>Phường Cẩm Thượng</t>
-  </si>
-  <si>
-    <t>HD000727</t>
-  </si>
-  <si>
-    <t>KH001259</t>
-  </si>
-  <si>
-    <t>thiện trương</t>
-  </si>
-  <si>
-    <t>0905222254</t>
-  </si>
-  <si>
-    <t>13 trần thị lý- thị trấn trà my - bắc trà my- quảng nam</t>
-  </si>
-  <si>
-    <t>Quảng Nam - Huyện Bắc Trà My</t>
-  </si>
-  <si>
-    <t>Thị trấn Trà My</t>
-  </si>
-  <si>
-    <t>SP022142</t>
-  </si>
-  <si>
-    <t>phí chênh lệch</t>
-  </si>
-  <si>
-    <t>SP022248</t>
-  </si>
-  <si>
-    <t>hàng order</t>
-  </si>
-  <si>
-    <t>HD000726</t>
-  </si>
-  <si>
-    <t>KH000226</t>
-  </si>
-  <si>
-    <t>Xuân Đặng</t>
-  </si>
-  <si>
-    <t>0967602682</t>
-  </si>
-  <si>
-    <t>sn 37/1 , tổ 5 phường hương sơn, Thành phố Thái Nguyên</t>
-  </si>
-  <si>
-    <t>Thái Nguyên - Thành phố Thái Nguyên</t>
-  </si>
-  <si>
-    <t>Phường Hương Sơn</t>
+    <t>Trạng thái(0: Huỷ, 1: Hoàn thành)</t>
+  </si>
+  <si>
+    <t>SP000015</t>
   </si>
 </sst>
 </file>
@@ -241,6 +127,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -298,9 +185,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A089101-9C0E-4ECC-BF7E-BAFC0572D3AF}" name="InvoiceTable3" displayName="InvoiceTable3" ref="A1:V7" totalsRowShown="0">
-  <autoFilter ref="A1:V7" xr:uid="{2A089101-9C0E-4ECC-BF7E-BAFC0572D3AF}"/>
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A089101-9C0E-4ECC-BF7E-BAFC0572D3AF}" name="InvoiceTable3" displayName="InvoiceTable3" ref="A1:T7" totalsRowShown="0">
+  <autoFilter ref="A1:T7" xr:uid="{2A089101-9C0E-4ECC-BF7E-BAFC0572D3AF}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{1F0F1F38-36DF-401D-B777-1F29600062AA}" name="Chi nhánh"/>
     <tableColumn id="2" xr3:uid="{3EEF3009-ECE3-4AA4-9150-082415A07120}" name="Mã hóa đơn"/>
     <tableColumn id="7" xr3:uid="{CFACB1F8-1819-47AA-B7A8-DEBE19FDD064}" name="Thời gian"/>
@@ -309,9 +196,7 @@
     <tableColumn id="14" xr3:uid="{FBE957AF-093F-41D2-AF8F-96FF2AA3B284}" name="Email"/>
     <tableColumn id="15" xr3:uid="{D117B3DE-60E1-4062-9440-D8E75FCF7976}" name="Điện thoại"/>
     <tableColumn id="16" xr3:uid="{BAEE1A85-4C25-4734-AD06-D3C6A0D3D0A5}" name="Địa chỉ (Khách hàng)"/>
-    <tableColumn id="17" xr3:uid="{5F685598-BD5D-4BEA-AA14-6CF1D6040A0F}" name="Khu vực (Khách hàng)"/>
-    <tableColumn id="18" xr3:uid="{2E23BD9A-15DD-4B4F-B2D8-ADE7727605AD}" name="Phường/Xã (Khách hàng)"/>
-    <tableColumn id="51" xr3:uid="{AEDD9861-E625-4109-BEBD-5CC1D829A35B}" name="Trạng thái"/>
+    <tableColumn id="51" xr3:uid="{AEDD9861-E625-4109-BEBD-5CC1D829A35B}" name="Trạng thái(0: Huỷ, 1: Hoàn thành)"/>
     <tableColumn id="53" xr3:uid="{5CBD9989-B561-4CEE-B827-C87038215074}" name="Mã hàng2"/>
     <tableColumn id="54" xr3:uid="{0110160B-F3BD-4519-9ECE-262E6EAB0816}" name="Mã vạch"/>
     <tableColumn id="55" xr3:uid="{5E9A8CCE-32F2-40D4-B975-B902A7CF1CED}" name="Tên hàng"/>
@@ -615,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,23 +516,21 @@
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10" customWidth="1"/>
+    <col min="9" max="9" width="44.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -673,389 +556,89 @@
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>19</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
       </c>
       <c r="C2" s="3">
         <v>45756.703089699076</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>7000</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1000</v>
       </c>
       <c r="R2" s="4">
         <v>7000</v>
       </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
-        <v>7000</v>
-      </c>
-      <c r="U2" s="5">
-        <v>7000</v>
-      </c>
-      <c r="V2" s="4"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45756.682059803243</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3" s="4">
-        <v>7000</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
-        <v>7000</v>
-      </c>
-      <c r="U3" s="5">
-        <v>7000</v>
-      </c>
-      <c r="V3" s="4"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3">
-        <v>45756.668534340279</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4">
-        <v>7000</v>
-      </c>
-      <c r="S4" s="4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <v>7000</v>
-      </c>
-      <c r="U4" s="5">
-        <v>7000</v>
-      </c>
-      <c r="V4" s="4"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45756.464044560184</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5" s="4">
-        <v>8000</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>8000</v>
-      </c>
-      <c r="U5" s="5">
-        <v>8000</v>
-      </c>
-      <c r="V5" s="4"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="3">
-        <v>45756.464044560184</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="4">
-        <v>511000</v>
-      </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>511000</v>
-      </c>
-      <c r="U6" s="5">
-        <v>511000</v>
-      </c>
-      <c r="V6" s="4"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45756.402604363429</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7" s="4">
-        <v>7000</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
-        <v>7000</v>
-      </c>
-      <c r="U7" s="5">
-        <v>7000</v>
-      </c>
-      <c r="V7" s="4"/>
+      <c r="S2" s="5">
+        <v>13000</v>
+      </c>
+      <c r="T2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
